--- a/lab-3/lab_3.xlsx
+++ b/lab-3/lab_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D95AB7-32FA-4603-BEBA-0AA870F0E5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F16445-5717-4161-8745-EE7F9A3514F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F503492F-066B-0A45-B6B9-4C824909532E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F503492F-066B-0A45-B6B9-4C824909532E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,7 +236,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,31 +835,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.4</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,31 +871,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>-2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>-1.4400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>-0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>-0.32000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32000000000000006</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.28</c:v>
+                  <c:v>0.31999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15999999999999992</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4400000000000002</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,7 +1069,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1150,31 +1150,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.4</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,31 +1186,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>-2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>-1.4400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>-0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>-0.32000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32000000000000006</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.28</c:v>
+                  <c:v>0.31999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15999999999999992</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4400000000000002</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E67801-61CD-CA47-BD27-20C123FC5A39}">
   <dimension ref="C27:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
@@ -2734,12 +2734,12 @@
       <c r="L37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O37">
-        <v>0</v>
+      <c r="O37" s="2">
+        <v>-1</v>
       </c>
       <c r="P37">
-        <f>(-0.4+0.8*O37)/-0.5</f>
-        <v>0.8</v>
+        <f>(-0.4+0.8*O37)/0.5</f>
+        <v>-2.4000000000000004</v>
       </c>
     </row>
     <row r="38" spans="3:16">
@@ -2774,12 +2774,12 @@
       <c r="L38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O38">
-        <v>0.1</v>
+      <c r="O38" s="6">
+        <v>-0.7</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:P45" si="1">(-0.4+0.8*O38)/-0.5</f>
-        <v>0.64</v>
+        <f t="shared" ref="P38:P46" si="1">(-0.4+0.8*O38)/0.5</f>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="39" spans="3:16">
@@ -2814,12 +2814,12 @@
       <c r="L39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O39">
-        <v>-0.1</v>
+      <c r="O39" s="6">
+        <v>-0.4</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>0.96000000000000008</v>
+        <v>-1.4400000000000002</v>
       </c>
     </row>
     <row r="40" spans="3:16">
@@ -2854,12 +2854,12 @@
       <c r="L40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O40">
-        <v>0.2</v>
+      <c r="O40" s="6">
+        <v>-0.1</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>-0.96000000000000008</v>
       </c>
     </row>
     <row r="41" spans="3:16">
@@ -2894,12 +2894,12 @@
       <c r="L41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O41">
-        <v>-0.2</v>
+      <c r="O41" s="6">
+        <v>0.3</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <v>-0.32000000000000006</v>
       </c>
     </row>
     <row r="42" spans="3:16">
@@ -2934,12 +2934,12 @@
       <c r="L42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O42">
-        <v>0.3</v>
+      <c r="O42" s="5">
+        <v>0.65</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>0.32000000000000006</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="43" spans="3:16">
@@ -2974,12 +2974,12 @@
       <c r="L43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O43">
-        <v>-0.3</v>
+      <c r="O43" s="5">
+        <v>0.7</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>1.28</v>
+        <v>0.31999999999999984</v>
       </c>
     </row>
     <row r="44" spans="3:16">
@@ -3014,12 +3014,12 @@
       <c r="L44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O44">
-        <v>0.4</v>
+      <c r="O44" s="5">
+        <v>0.95</v>
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>0.15999999999999992</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="45" spans="3:16">
@@ -3054,12 +3054,12 @@
       <c r="L45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O45">
-        <v>-0.4</v>
+      <c r="O45" s="5">
+        <v>1.35</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
-        <v>1.4400000000000002</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="46" spans="3:16">
@@ -3093,6 +3093,13 @@
       </c>
       <c r="L46" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="O46" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>1.3920000000000001</v>
       </c>
     </row>
     <row r="47" spans="3:16">
